--- a/Data_science_outputs/800pop/Monthly_consumption/Montlhy_consumption_3.xlsx
+++ b/Data_science_outputs/800pop/Monthly_consumption/Montlhy_consumption_3.xlsx
@@ -475,13 +475,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>15841.76522351668</v>
+        <v>11659.69062328335</v>
       </c>
       <c r="C2" t="n">
         <v>2144.876813533337</v>
       </c>
       <c r="D2" t="n">
-        <v>4750.517147983333</v>
+        <v>594.91877525</v>
       </c>
       <c r="E2" t="n">
         <v>1619.4986809</v>
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14764.88888281668</v>
+        <v>10968.56804391668</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4445.676937883333</v>
+        <v>549.4940660333333</v>
       </c>
       <c r="E3" t="n">
         <v>1529.160677633333</v>
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15879.70982175002</v>
+        <v>11628.53546963335</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4722.491294366667</v>
+        <v>567.5385497833333</v>
       </c>
       <c r="E4" t="n">
         <v>1609.607563283333</v>
@@ -544,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15375.35874265002</v>
+        <v>11296.43561766668</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>4574.35195935</v>
+        <v>558.0063456333334</v>
       </c>
       <c r="E5" t="n">
         <v>1531.436485333333</v>
@@ -567,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15823.27343366668</v>
+        <v>11707.55397813335</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4719.943838033333</v>
+        <v>583.4007040333333</v>
       </c>
       <c r="E6" t="n">
         <v>1597.732946783333</v>
@@ -590,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15321.52453578335</v>
+        <v>11307.89054383335</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4611.8192375</v>
+        <v>567.9765056333333</v>
       </c>
       <c r="E7" t="n">
         <v>1587.797811866667</v>
@@ -613,13 +613,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15866.79379281668</v>
+        <v>11706.30873480002</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4715.111734566667</v>
+        <v>580.4829874166667</v>
       </c>
       <c r="E8" t="n">
         <v>1635.229943383333</v>
@@ -636,13 +636,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15864.34766783335</v>
+        <v>11729.88596511668</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4753.588836816666</v>
+        <v>581.9110343833333</v>
       </c>
       <c r="E9" t="n">
         <v>1606.75128105</v>
@@ -659,13 +659,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15274.97284831668</v>
+        <v>11314.81506665002</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4583.997648099999</v>
+        <v>563.8412813833334</v>
       </c>
       <c r="E10" t="n">
         <v>1568.516446866667</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15802.87435660002</v>
+        <v>11694.90437996668</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4762.770363</v>
+        <v>583.0738891</v>
       </c>
       <c r="E11" t="n">
         <v>1644.872778166667</v>
@@ -705,13 +705,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15417.93724246668</v>
+        <v>11334.85010820002</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>4572.220292433333</v>
+        <v>559.3883812833333</v>
       </c>
       <c r="E12" t="n">
         <v>1593.347775283333</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15352.29808638335</v>
+        <v>11327.37253641668</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4586.699489833333</v>
+        <v>553.8025255333333</v>
       </c>
       <c r="E13" t="n">
         <v>1576.185377066667</v>
